--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,12 +41,20 @@
     <t>appointment-info.hltml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>选择数量支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay-select-number.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +103,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,7 +157,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,9 +189,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,6 +224,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,20 +400,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -411,12 +429,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -427,12 +453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -441,12 +467,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,22 @@
   </si>
   <si>
     <t>pay-select-number.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人收礼地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朋友完善地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address2.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -443,6 +459,22 @@
       </c>
       <c r="B4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,31 +38,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>选择数量支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay-select-number.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本人收礼地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朋友完善地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约须知2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>appointment-info.hltml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选择数量支付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay-select-number.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本人收礼地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朋友完善地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address2.html</t>
+    <t>appointment-info2.hltml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -450,31 +458,39 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,22 @@
   </si>
   <si>
     <t>appointment-info2.hltml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送朋友预约成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送自己预约成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>succeed-friend.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>succeed-oneself.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -491,6 +507,22 @@
       </c>
       <c r="B8" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,14 @@
   </si>
   <si>
     <t>succeed-oneself.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -523,6 +531,14 @@
       </c>
       <c r="B10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,14 @@
   </si>
   <si>
     <t>login.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -539,6 +547,14 @@
       </c>
       <c r="B11" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,22 @@
   </si>
   <si>
     <t>menu.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logistics-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送礼记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift-info.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -555,6 +571,22 @@
       </c>
       <c r="B12" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,11 +114,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>送礼记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift-info.html</t>
+    <t>收礼记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift-info-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive-info-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift-info-con.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送礼记录列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送礼记录详情1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送礼记录详情2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift-info-con2.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -583,10 +607,34 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,27 +122,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>gift-info-con.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送礼记录列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送礼记录详情1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送礼记录详情2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift-info-con2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收礼记录详情页1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收礼记录详情页2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>receive-info-list.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gift-info-con.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送礼记录列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送礼记录详情1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送礼记录详情2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift-info-con2.html</t>
+    <t>receive-info-con2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive-info-con.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -607,7 +623,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -615,18 +631,18 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -634,7 +650,23 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,38 @@
   </si>
   <si>
     <t>receive-info-con.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register.hltml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register3.hltml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register4.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册界面2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册界面3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册界面4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -667,6 +699,38 @@
       </c>
       <c r="B20" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,22 @@
   </si>
   <si>
     <t>注册界面4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址提交成功页1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址提交成功页2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address-succeed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address-succeed2.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -731,6 +747,22 @@
       </c>
       <c r="B25" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,14 @@
   </si>
   <si>
     <t>address-succeed2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取礼物页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get-present.hltml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -763,6 +771,14 @@
       </c>
       <c r="B28" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -572,7 +572,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,35 +118,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>gift-info-con.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送礼记录列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送礼记录详情1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送礼记录详情2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift-info-con2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收礼记录详情页1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收礼记录详情页2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive-info-con2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive-info-con.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register.hltml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register3.hltml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register4.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册界面2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册界面3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册界面4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址提交成功页1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址提交成功页2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address-succeed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address-succeed2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取礼物页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get-present.hltml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07-我的基金空白页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-fund-none.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-送礼记录空白页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>gift-info-list.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gift-info-con.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送礼记录列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送礼记录详情1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送礼记录详情2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift-info-con2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收礼记录详情页1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收礼记录详情页2</t>
+    <t>gift-info-none.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -154,67 +234,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>receive-info-con2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receive-info-con.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register.hltml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register3.hltml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register4.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册界面2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册界面3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册界面4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址提交成功页1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址提交成功页2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address-succeed.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address-succeed2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取礼物页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get-present.hltml</t>
+    <t>10-收礼记录空白页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive-info-none.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09-页面错误提醒样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page-wrong.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-注册错误提醒样式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,15 +605,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="27.625" customWidth="1"/>
     <col min="2" max="2" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -679,26 +715,26 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -706,79 +742,116 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
         <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
         <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
         <v>45</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>48</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,25 @@
   </si>
   <si>
     <t>08-注册错误提醒样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register-wrong.hltml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-基金明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05-我的基金</t>
+  </si>
+  <si>
+    <t>my-fund-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-fund.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -852,6 +871,25 @@
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>58</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,54 +222,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>gift-info-none.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive-info-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-收礼记录空白页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive-info-none.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09-页面错误提醒样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page-wrong.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-注册错误提醒样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register-wrong.hltml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-基金明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05-我的基金</t>
+  </si>
+  <si>
+    <t>my-fund-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-fund.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-礼物零库存页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>gift-info-list.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gift-info-none.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receive-info-list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-收礼记录空白页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receive-info-none.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09-页面错误提醒样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page-wrong.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-注册错误提醒样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register-wrong.hltml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06-基金明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05-我的基金</t>
-  </si>
-  <si>
-    <t>my-fund-list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-fund.html</t>
+    <t>gift-number-none.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-邀请朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invite-friends.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -737,7 +753,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -761,7 +777,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -849,47 +865,63 @@
         <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
         <v>54</v>
-      </c>
-      <c r="B34" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
         <v>56</v>
-      </c>
-      <c r="B36" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
         <v>58</v>
-      </c>
-      <c r="B37" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>63</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,6 +286,14 @@
   </si>
   <si>
     <t>invite-friends.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-永久折扣详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -922,6 +930,14 @@
       </c>
       <c r="B43" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,258 +43,302 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>本人收礼地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朋友完善地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约须知2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appointment-info.hltml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appointment-info2.hltml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送朋友预约成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送自己预约成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>succeed-friend.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>succeed-oneself.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logistics-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收礼记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift-info-con.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送礼记录列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送礼记录详情1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送礼记录详情2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift-info-con2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收礼记录详情页1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收礼记录详情页2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive-info-con2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive-info-con.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register.hltml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register3.hltml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register4.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册界面2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册界面3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册界面4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址提交成功页1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址提交成功页2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address-succeed.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address-succeed2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取礼物页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get-present.hltml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07-我的基金空白页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-fund-none.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-送礼记录空白页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift-info-none.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive-info-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-收礼记录空白页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive-info-none.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09-页面错误提醒样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page-wrong.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-注册错误提醒样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register-wrong.hltml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-基金明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05-我的基金</t>
+  </si>
+  <si>
+    <t>my-fund-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my-fund.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01-礼物零库存页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift-info-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift-number-none.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-邀请朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invite-friends.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-永久折扣详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05 M版注册第三步样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register5.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04 尾款支付样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>pay-select-number.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本人收礼地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朋友完善地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约须知2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appointment-info.hltml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appointment-info2.hltml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送朋友预约成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送自己预约成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>succeed-friend.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>succeed-oneself.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logistics-info.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收礼记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift-info-con.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送礼记录列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送礼记录详情1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>送礼记录详情2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift-info-con2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收礼记录详情页1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收礼记录详情页2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receive-info-con2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receive-info-con.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register.hltml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register3.hltml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register4.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册界面2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册界面3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册界面4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址提交成功页1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址提交成功页2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address-succeed.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address-succeed2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取礼物页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get-present.hltml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07-我的基金空白页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-fund-none.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-送礼记录空白页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift-info-none.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receive-info-list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-收礼记录空白页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receive-info-none.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09-页面错误提醒样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page-wrong.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-注册错误提醒样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register-wrong.hltml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06-基金明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05-我的基金</t>
-  </si>
-  <si>
-    <t>my-fund-list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my-fund.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01-礼物零库存页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift-info-list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift-number-none.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04-邀请朋友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invite-friends.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>discount-info.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03-永久折扣详情</t>
+    <t>pay-final.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 menu未登录样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01 menu登录后样式a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01 menu登录后样式b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu3.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -681,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -689,255 +734,298 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
         <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
         <v>46</v>
-      </c>
-      <c r="B30" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
         <v>48</v>
       </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>50</v>
       </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
         <v>53</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>55</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>57</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>59</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>63</v>
-      </c>
       <c r="B42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>66</v>
       </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>69</v>
       </c>
-      <c r="B45" t="s">
-        <v>68</v>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -286,59 +285,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>03-永久折扣详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05 M版注册第三步样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register5.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04 尾款支付样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay-select-number.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay-final.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 menu未登录样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01 menu登录后样式a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01 menu登录后样式b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu3.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>discount-info.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03-永久折扣详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05 M版注册第三步样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register5.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04 尾款支付样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay-select-number.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay-final.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03 menu未登录样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01 menu登录后样式a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01 menu登录后样式b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu1.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu3.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -695,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -734,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -953,7 +952,7 @@
         <v>60</v>
       </c>
       <c r="I39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -982,50 +981,50 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" t="s">
         <v>69</v>
-      </c>
-      <c r="B47" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
